--- a/excel/oil_202310.xlsx
+++ b/excel/oil_202310.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AI66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -448,160 +448,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>部門</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>10/1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>10/2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>10/3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>10/4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>10/5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>10/6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>10/7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10/8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>10/9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>10/10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>10/11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>10/12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>10/13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>10/14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>10/15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>10/16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>10/17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>10/18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>10/19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>10/20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>10/21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>10/22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>10/23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>10/24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>10/25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>10/26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>10/27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>10/28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>10/29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>10/30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>10/31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
@@ -610,17 +615,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>魏宏霖</t>
+          <t>簡含書</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henry Wei</t>
+          <t>Vanessa Chien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -774,6 +779,11 @@
         </is>
       </c>
       <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -782,17 +792,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>李侑萱</t>
+          <t>陳智倫</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yolanda Lee</t>
+          <t>Frank Chen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -946,6 +956,11 @@
         </is>
       </c>
       <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -954,17 +969,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>葉雲旭</t>
+          <t>黃冠叡</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johnny Yeh</t>
+          <t>Ray Huang</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1029,7 +1044,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1059,7 +1074,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>664</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1120,23 +1135,28 @@
       <c r="AH4" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>1664</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>潘梅寧</t>
+          <t>陳緯綺</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amy Pan</t>
+          <t>Vicky Chen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1211,7 +1231,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1292,23 +1312,28 @@
       <c r="AH5" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>1098</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1462,6 +1487,11 @@
         </is>
       </c>
       <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1470,17 +1500,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>傅子峰</t>
+          <t>陳聿恩</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gibson Fu</t>
+          <t>Kitty Chen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1540,7 +1570,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1378</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1555,7 +1585,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1635,24 +1665,29 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>1378</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>賴韋任</t>
+          <t>葉美妙</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leo Lai</t>
+          <t>Karen Yeh</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1806,6 +1841,11 @@
         </is>
       </c>
       <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1814,17 +1854,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>川中郁果</t>
+          <t>張潔宜</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kawanaka Ikuka</t>
+          <t>Vivi Chang</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1889,7 +1929,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1980,23 +2020,28 @@
       <c r="AH9" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>1115</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>陳聿恩</t>
+          <t>朱傑</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kitty Chen</t>
+          <t>Jason Chu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2021,7 +2066,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2051,7 +2096,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2086,7 +2131,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2151,24 +2196,29 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>2178</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>1326</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>吳國彰</t>
+          <t>李子豪</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Justin Wu</t>
+          <t>Howard Lee</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2322,6 +2372,11 @@
         </is>
       </c>
       <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2330,17 +2385,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>葉美妙</t>
+          <t>許少凱</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Karen Yeh</t>
+          <t>Kent Hsu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2375,7 +2430,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1267</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2395,7 +2450,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2405,7 +2460,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2425,7 +2480,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2495,24 +2550,29 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>3635</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>吳東穎</t>
+          <t>劉學仁</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Richie Wu</t>
+          <t>Jason Liu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2666,6 +2726,11 @@
         </is>
       </c>
       <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2674,17 +2739,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>謝芳琴</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Chin Hsieh</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2704,12 +2769,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>879</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2739,17 +2804,17 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>972</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>801</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2769,7 +2834,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>841</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2784,7 +2849,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>647</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2839,24 +2904,29 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2080</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>4140</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>朱傑</t>
+          <t>徐茂家</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jason Chu</t>
+          <t>Mark Hsu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2881,7 +2951,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1736</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2941,12 +3011,12 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -3011,29 +3081,34 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>3062</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>1480</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>許少凱</t>
+          <t>魏毓瑩</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kent Hsu</t>
+          <t>Mina Wei</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3048,7 +3123,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3058,7 +3133,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1310</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3078,22 +3153,22 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3183,24 +3258,29 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>5294</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>凃美君</t>
+          <t>董宇珊</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chun Tu</t>
+          <t>Joanne Tung</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3260,7 +3340,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3295,7 +3375,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1559</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -3356,23 +3436,28 @@
       <c r="AH17" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>3222</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>劉學仁</t>
+          <t>林子玲</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jason Liu</t>
+          <t>Missy Lin</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3422,12 +3507,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3462,7 +3547,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3527,29 +3612,34 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>2428</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>謝芳琴</t>
+          <t>沈麗玉</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chin Hsieh</t>
+          <t>Lillian Shan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3559,12 +3649,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1478</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3594,7 +3684,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3604,7 +3694,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -3624,7 +3714,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -3634,17 +3724,17 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -3699,24 +3789,29 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>6849</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>徐茂家</t>
+          <t>吳燕華</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mark Hsu</t>
+          <t>Isabel Wu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3741,7 +3836,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3801,7 +3896,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -3871,29 +3966,34 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>3001</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>1188</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>魏毓瑩</t>
+          <t>鄭捷齡</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mina Wei</t>
+          <t>Cynthia Cheng</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1382</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3903,7 +4003,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3913,7 +4013,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1310</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3938,7 +4038,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3948,7 +4048,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3968,7 +4068,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -4043,7 +4143,12 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>6676</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>1012</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4165,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4085,7 +4190,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4120,14 +4225,14 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>1326</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Q22" t="inlineStr">
         <is>
           <t>0</t>
@@ -4215,7 +4320,12 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>1326</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4342,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4247,7 +4357,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4388,6 +4498,11 @@
       <c r="AH23" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>1411</t>
         </is>
       </c>
     </row>
@@ -4404,7 +4519,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4429,7 +4544,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4499,14 +4614,14 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
           <t>1095</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X24" t="inlineStr">
         <is>
           <t>0</t>
@@ -4559,7 +4674,12 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>2088</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>1095</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4696,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4586,7 +4706,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4731,7 +4851,12 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4873,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4773,7 +4898,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4823,14 +4948,14 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
           <t>910</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="T26" t="inlineStr">
         <is>
           <t>0</t>
@@ -4843,14 +4968,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
           <t>819</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X26" t="inlineStr">
         <is>
           <t>0</t>
@@ -4903,7 +5028,12 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>2533</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>1729</t>
         </is>
       </c>
     </row>
@@ -4920,7 +5050,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4930,7 +5060,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4970,14 +5100,14 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>1098</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="O27" t="inlineStr">
         <is>
           <t>0</t>
@@ -5000,14 +5130,14 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
           <t>1314</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="U27" t="inlineStr">
         <is>
           <t>0</t>
@@ -5075,24 +5205,29 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>2412</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5187,12 +5322,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1479</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -5247,24 +5382,29 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>1479</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>戴新華</t>
+          <t>徐世峰</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dixie Tai</t>
+          <t>Sam Hsu</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5364,7 +5504,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -5420,23 +5560,28 @@
       <c r="AH29" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>1245</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5446,7 +5591,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5461,7 +5606,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -5501,7 +5646,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>988</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -5511,7 +5656,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -5526,12 +5671,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -5591,24 +5736,29 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>6645</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>988</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>董宇珊</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Joanne Tung</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5623,7 +5773,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5663,7 +5813,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -5698,7 +5848,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -5708,7 +5858,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -5763,24 +5913,29 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>4713</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>1200</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>林子玲</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Missy Lin</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5800,17 +5955,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>850</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>710</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5830,12 +5985,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -5845,7 +6000,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -5865,12 +6020,12 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -5880,7 +6035,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>954</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -5935,29 +6090,34 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>3541</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>6208</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5967,7 +6127,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1478</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5987,7 +6147,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -6007,7 +6167,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -6027,7 +6187,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -6037,7 +6197,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -6047,12 +6207,12 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1046</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -6107,29 +6267,34 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>8479</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>3820</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -6199,7 +6364,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1271</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -6214,12 +6379,12 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>985</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -6279,24 +6444,29 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>2256</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6326,7 +6496,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6386,7 +6556,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>784</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -6452,23 +6622,28 @@
       <c r="AH35" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>2143</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6493,12 +6668,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6523,7 +6698,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>961</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -6533,7 +6708,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -6563,12 +6738,12 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -6623,24 +6798,29 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>4125</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6690,12 +6870,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -6730,7 +6910,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>819</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -6795,24 +6975,29 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>1980</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>吳燕華</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Isabel Wu</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6822,12 +7007,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1498</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>985</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6837,12 +7022,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2037</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6877,7 +7062,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -6892,7 +7077,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -6967,24 +7152,29 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>2205</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>5993</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7059,7 +7249,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -7139,24 +7329,29 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>張維辛</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Darren Chang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7171,7 +7366,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1449</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -7216,7 +7411,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -7236,12 +7431,12 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>952</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
@@ -7311,24 +7506,29 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>2252</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>李沐潔</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kayla Lee</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7358,7 +7558,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -7388,7 +7588,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -7428,7 +7628,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -7484,23 +7684,28 @@
       <c r="AH41" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>3282</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7555,7 +7760,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -7580,7 +7785,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1431</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -7600,7 +7805,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
@@ -7655,29 +7860,34 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>2781</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -7687,7 +7897,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -7702,7 +7912,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -7712,7 +7922,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>851</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -7747,12 +7957,12 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>596</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1430</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -7767,12 +7977,12 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>664</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -7827,24 +8037,29 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>2829</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>6392</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>李沐潔</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>Kayla Lee</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7869,7 +8084,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -7899,7 +8114,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -7919,7 +8134,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -7929,7 +8144,7 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>763</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -7999,29 +8214,34 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>3530</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>763</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -8031,7 +8251,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>946</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -8046,7 +8266,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -8066,7 +8286,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -8096,7 +8316,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -8171,24 +8391,29 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>3286</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>楊于箴</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Sandy Yang</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8238,7 +8463,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -8263,7 +8488,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -8343,24 +8568,29 @@
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>2763</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8420,7 +8650,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>1427</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -8450,7 +8680,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -8515,24 +8745,29 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>2934</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>傅子峰</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Gibson Fu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA61</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8612,7 +8847,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>893</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -8627,7 +8862,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -8688,23 +8923,28 @@
       <c r="AH48" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>1956</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>蕭順仁</t>
+          <t>吳佳玉</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Allen Hsiao</t>
+          <t>Joy Wu</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8769,7 +9009,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -8860,23 +9100,28 @@
       <c r="AH49" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>1483</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>陳智倫</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Frank Chen</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -8891,7 +9136,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -8941,7 +9186,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1380</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -8961,7 +9206,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -9031,24 +9276,29 @@
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>2709</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9063,12 +9313,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -9078,7 +9328,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -9098,22 +9348,22 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>912</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -9123,17 +9373,17 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -9203,29 +9453,34 @@
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>9674</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>張晉榮</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Barton Chang</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -9245,7 +9500,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -9270,12 +9525,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -9295,7 +9550,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -9305,7 +9560,7 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
@@ -9315,14 +9570,14 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X52" t="inlineStr">
         <is>
           <t>0</t>
@@ -9330,7 +9585,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -9375,84 +9630,89 @@
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>4651</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>5070</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>胡美燕</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>May Hu</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
           <t>880</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>783</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>966</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>887</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -9472,17 +9732,17 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>805</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>650</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -9547,29 +9807,34 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>6775</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>3946</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -9639,7 +9904,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -9659,7 +9924,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -9719,24 +9984,29 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>3977</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9801,7 +10071,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -9816,7 +10086,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -9892,23 +10162,28 @@
       <c r="AH55" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>2566</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -9933,12 +10208,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>845</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -9963,12 +10238,12 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>900</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -9988,12 +10263,12 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
@@ -10063,24 +10338,29 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>3145</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>李品于</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>Spring Lee</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10105,7 +10385,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -10135,7 +10415,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10165,7 +10445,7 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
@@ -10175,7 +10455,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1114</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -10235,24 +10515,29 @@
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>3678</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>2292</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -10262,7 +10547,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -10272,12 +10557,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1359</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10302,7 +10587,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1408</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -10327,7 +10612,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -10337,7 +10622,7 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
@@ -10407,24 +10692,29 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>3725</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>4111</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10449,7 +10739,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -10474,17 +10764,17 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -10579,24 +10869,29 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>3125</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>1240</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10611,7 +10906,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10646,12 +10941,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -10676,12 +10971,12 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -10751,29 +11046,34 @@
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>2602</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>2763</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10793,7 +11093,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -10823,7 +11123,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10843,7 +11143,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -10853,7 +11153,7 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
@@ -10923,24 +11223,29 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>3930</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>1986</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -10955,7 +11260,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10995,7 +11300,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -11010,7 +11315,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>722</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -11020,7 +11325,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -11095,24 +11400,29 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>2624</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11137,12 +11447,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>783</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -11167,17 +11477,17 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>806</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>966</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>961</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -11187,7 +11497,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -11197,12 +11507,12 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>862</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -11267,29 +11577,34 @@
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>3860</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>5895</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -11309,12 +11624,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -11339,12 +11654,12 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -11359,7 +11674,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -11439,34 +11754,39 @@
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>4125</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>2336</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>林華宸</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Wayne Lin</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -11481,7 +11801,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2037</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -11516,7 +11836,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -11546,7 +11866,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>1448</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -11611,44 +11931,44 @@
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>7441</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>1800</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,498</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,442</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7,375</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -11658,77 +11978,77 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15,296</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,785</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>851</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>2,558</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18,888</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13,698</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17,345</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>722</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6,726</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15,963</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8,075</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>14,042</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,424</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,757</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
@@ -11738,7 +12058,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,200</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -11783,867 +12103,12 @@
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>3345</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>王貞文</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Jane Wang</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>710</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>1611</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>954</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH67" t="inlineStr">
-        <is>
-          <t>7149</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>莊正忠</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Hugo Chuang</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1245</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>1380</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>1329</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH68" t="inlineStr">
-        <is>
-          <t>3954</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>李俊賢</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Kiven Lee</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>1199</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1317</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>912</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>1167</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>1278</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH69" t="inlineStr">
-        <is>
-          <t>10873</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>黃榮昌</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Hothwang Huang</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>946</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>1340</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH70" t="inlineStr">
-        <is>
-          <t>4286</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>21,383</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>8,946</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>13,011</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>31,531</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>20,857</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>13,398</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>14,862</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>15,963</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>6,812</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>14,682</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>5,145</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>11,278</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>177,868</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>152,525</t>
         </is>
       </c>
     </row>

--- a/excel/oil_202310.xlsx
+++ b/excel/oil_202310.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1710</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>600</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>600</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>985</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>2083</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>828</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>828</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>770</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>2948</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1127</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>965</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>2080</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>3062</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1662</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3635</t>
+          <t>4740</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2293</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2293</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>900</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>4140</t>
+          <t>5040</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>3001</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1382</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>5294</t>
+          <t>6676</t>
         </is>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1491</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3222</t>
+          <t>4713</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2428</t>
+          <t>3541</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>6849</t>
+          <t>8479</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>2205</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>2238</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1432</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>2671</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>993</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>2088</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1445</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>804</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>2533</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>2412</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1373</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>2852</t>
         </is>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>2649</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>2557</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>4527</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>941</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>6208</t>
+          <t>7149</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1456</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>3820</t>
+          <t>5276</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1449</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>3705</t>
         </is>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>2143</t>
+          <t>3725</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1335</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>4125</t>
+          <t>5460</t>
         </is>
       </c>
     </row>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>622</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2602</t>
         </is>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>5993</t>
+          <t>7441</t>
         </is>
       </c>
     </row>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1127</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>2252</t>
+          <t>3530</t>
         </is>
       </c>
     </row>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>3282</t>
+          <t>4651</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1196</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>2781</t>
+          <t>3977</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>6392</t>
+          <t>9422</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8114,7 +8114,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>760</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>915</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>3512</t>
         </is>
       </c>
     </row>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>3286</t>
+          <t>5431</t>
         </is>
       </c>
     </row>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>939</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>939</t>
         </is>
       </c>
     </row>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>4397</t>
         </is>
       </c>
     </row>
@@ -8832,7 +8832,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>711</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>2667</t>
         </is>
       </c>
     </row>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1470</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>2953</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>2709</t>
+          <t>3954</t>
         </is>
       </c>
     </row>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>9674</t>
+          <t>10873</t>
         </is>
       </c>
     </row>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>5070</t>
+          <t>6435</t>
         </is>
       </c>
     </row>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>864</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>3946</t>
+          <t>4810</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1474</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1474</t>
         </is>
       </c>
     </row>
@@ -10036,7 +10036,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>2566</t>
+          <t>3860</t>
         </is>
       </c>
     </row>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>980</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>4125</t>
         </is>
       </c>
     </row>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -10520,7 +10520,7 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>2292</t>
+          <t>3345</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>4111</t>
+          <t>5522</t>
         </is>
       </c>
     </row>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1274</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>731</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1459</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -10804,7 +10804,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>7300</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>650</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>2763</t>
+          <t>3413</t>
         </is>
       </c>
     </row>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2167</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>4153</t>
         </is>
       </c>
     </row>
@@ -11280,7 +11280,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1532</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>2624</t>
+          <t>4156</t>
         </is>
       </c>
     </row>
@@ -11432,7 +11432,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>5895</t>
+          <t>6775</t>
         </is>
       </c>
     </row>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>2336</t>
+          <t>3356</t>
         </is>
       </c>
     </row>
@@ -11806,7 +11806,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>3678</t>
         </is>
       </c>
     </row>
@@ -11953,22 +11953,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,546</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1,498</t>
+          <t>21,383</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>4,442</t>
+          <t>13,320</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>7,375</t>
+          <t>20,656</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -11978,17 +11978,17 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>15,296</t>
+          <t>34,771</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2,785</t>
+          <t>6,855</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1,501</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -12003,22 +12003,22 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>18,888</t>
+          <t>24,748</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>13,698</t>
+          <t>16,284</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>17,345</t>
+          <t>19,386</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>4,049</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -12033,22 +12033,22 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>8,075</t>
+          <t>9,335</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>14,042</t>
+          <t>18,055</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>5,424</t>
+          <t>7,811</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>14,757</t>
+          <t>15,672</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
@@ -12108,7 +12108,7 @@
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>152,525</t>
+          <t>244,699</t>
         </is>
       </c>
     </row>
